--- a/data/salmon data/data for analysis/Copper_Wild_Sockeye_final.xlsx
+++ b/data/salmon data/data for analysis/Copper_Wild_Sockeye_final.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15300" tabRatio="500"/>
@@ -956,8 +956,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1121,7 +1129,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1191,6 +1199,10 @@
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1260,6 +1272,10 @@
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1591,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44:M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3153,13 +3169,13 @@
         <v>0</v>
       </c>
       <c r="K21" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N21" s="18">
         <v>217115561</v>
@@ -3233,22 +3249,22 @@
         <v>0</v>
       </c>
       <c r="H22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K22" s="14">
         <v>0</v>
       </c>
       <c r="L22" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="14">
-        <v>0</v>
+        <v>-0.94736841999999999</v>
       </c>
       <c r="N22" s="18">
         <v>289647730</v>
@@ -3325,19 +3341,19 @@
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="8">
-        <v>0</v>
+        <v>-0.94736841999999999</v>
       </c>
       <c r="K23" s="14">
         <v>0</v>
       </c>
       <c r="L23" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="14">
-        <v>0</v>
+        <v>-0.89473683999999998</v>
       </c>
       <c r="N23" s="18">
         <v>297246327</v>
@@ -3411,22 +3427,22 @@
         <v>-0.94736841999999999</v>
       </c>
       <c r="H24" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="8">
         <v>1</v>
       </c>
       <c r="J24" s="8">
-        <v>-1</v>
+        <v>-0.89473683999999998</v>
       </c>
       <c r="K24" s="14">
         <v>0</v>
       </c>
       <c r="L24" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="14">
-        <v>0</v>
+        <v>-0.84210525999999997</v>
       </c>
       <c r="N24" s="18">
         <v>532044543</v>
@@ -3506,16 +3522,16 @@
         <v>1</v>
       </c>
       <c r="J25" s="8">
-        <v>-0.94736841999999999</v>
+        <v>-0.84210525999999997</v>
       </c>
       <c r="K25" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="14">
         <v>1</v>
       </c>
       <c r="M25" s="14">
-        <v>-1</v>
+        <v>-0.78947367999999996</v>
       </c>
       <c r="N25" s="18">
         <v>517869725</v>
@@ -3595,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="8">
-        <v>-0.89473683999999998</v>
+        <v>-0.78947367999999996</v>
       </c>
       <c r="K26" s="14">
         <v>0</v>
@@ -3604,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="14">
-        <v>-0.94736841999999999</v>
+        <v>-0.73684210999999999</v>
       </c>
       <c r="N26" s="18">
         <v>617247527</v>
@@ -3684,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="8">
-        <v>-0.84210525999999997</v>
+        <v>-0.73684210999999999</v>
       </c>
       <c r="K27" s="14">
         <v>0</v>
@@ -3693,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="14">
-        <v>-0.89473683999999998</v>
+        <v>-0.68421052999999998</v>
       </c>
       <c r="N27" s="18">
         <v>605425238</v>
@@ -3773,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="8">
-        <v>-0.78947367999999996</v>
+        <v>-0.68421052999999998</v>
       </c>
       <c r="K28" s="14">
         <v>0</v>
@@ -3782,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="14">
-        <v>-0.84210525999999997</v>
+        <v>-0.63157894999999997</v>
       </c>
       <c r="N28" s="18">
         <v>495701890</v>
@@ -3862,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="8">
-        <v>-0.73684210999999999</v>
+        <v>-0.63157894999999997</v>
       </c>
       <c r="K29" s="14">
         <v>0</v>
@@ -3871,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="14">
-        <v>-0.78947367999999996</v>
+        <v>-0.57894736999999996</v>
       </c>
       <c r="N29" s="18">
         <v>567320525</v>
@@ -3951,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="8">
-        <v>-0.68421052999999998</v>
+        <v>-0.57894736999999996</v>
       </c>
       <c r="K30" s="14">
         <v>0</v>
@@ -3960,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="14">
-        <v>-0.73684210999999999</v>
+        <v>-0.52631578999999995</v>
       </c>
       <c r="N30" s="18">
         <v>489220608</v>
@@ -4040,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="8">
-        <v>-0.63157894999999997</v>
+        <v>-0.52631578999999995</v>
       </c>
       <c r="K31" s="14">
         <v>0</v>
@@ -4049,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="14">
-        <v>-0.68421052999999998</v>
+        <v>-0.47368420999999999</v>
       </c>
       <c r="N31" s="18">
         <v>613158229</v>
@@ -4129,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="8">
-        <v>-0.57894736999999996</v>
+        <v>-0.47368420999999999</v>
       </c>
       <c r="K32" s="14">
         <v>0</v>
@@ -4138,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="14">
-        <v>-0.63157894999999997</v>
+        <v>-0.42105262999999998</v>
       </c>
       <c r="N32" s="18">
         <v>641675427</v>
@@ -4218,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="8">
-        <v>-0.52631578999999995</v>
+        <v>-0.42105262999999998</v>
       </c>
       <c r="K33" s="14">
         <v>0</v>
@@ -4227,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="M33" s="14">
-        <v>-0.57894736999999996</v>
+        <v>-0.36842105000000003</v>
       </c>
       <c r="N33" s="18">
         <v>483704011</v>
@@ -4307,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="8">
-        <v>-0.47368420999999999</v>
+        <v>-0.36842105000000003</v>
       </c>
       <c r="K34" s="14">
         <v>0</v>
@@ -4316,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="14">
-        <v>-0.52631578999999995</v>
+        <v>-0.31578947000000002</v>
       </c>
       <c r="N34" s="18">
         <v>542383070</v>
@@ -4396,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="8">
-        <v>-0.42105262999999998</v>
+        <v>-0.31578947000000002</v>
       </c>
       <c r="K35" s="14">
         <v>0</v>
@@ -4405,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="M35" s="14">
-        <v>-0.47368420999999999</v>
+        <v>-0.26315789000000001</v>
       </c>
       <c r="N35" s="18">
         <v>602128903</v>
@@ -4485,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="8">
-        <v>-0.36842105000000003</v>
+        <v>-0.26315789000000001</v>
       </c>
       <c r="K36" s="14">
         <v>0</v>
@@ -4494,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="14">
-        <v>-0.42105262999999998</v>
+        <v>-0.21052631999999999</v>
       </c>
       <c r="N36" s="18">
         <v>586607038</v>
@@ -4574,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="8">
-        <v>-0.31578947000000002</v>
+        <v>-0.21052631999999999</v>
       </c>
       <c r="K37" s="14">
         <v>0</v>
@@ -4583,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="M37" s="14">
-        <v>-0.36842105000000003</v>
+        <v>-0.15789474000000001</v>
       </c>
       <c r="N37" s="18">
         <v>621062096</v>
@@ -4663,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="8">
-        <v>-0.26315789000000001</v>
+        <v>-0.15789474000000001</v>
       </c>
       <c r="K38" s="14">
         <v>0</v>
@@ -4672,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="M38" s="14">
-        <v>-0.31578947000000002</v>
+        <v>-0.10526315999999999</v>
       </c>
       <c r="N38" s="18">
         <v>603754659</v>
@@ -4752,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="8">
-        <v>-0.21052631999999999</v>
+        <v>-0.10526315999999999</v>
       </c>
       <c r="K39" s="14">
         <v>0</v>
@@ -4761,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="14">
-        <v>-0.26315789000000001</v>
+        <v>-5.2631579999999997E-2</v>
       </c>
       <c r="N39" s="18">
         <v>607943252</v>
@@ -4841,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="8">
-        <v>-0.15789474000000001</v>
+        <v>-5.2631579999999997E-2</v>
       </c>
       <c r="K40" s="14">
         <v>0</v>
@@ -4849,8 +4865,8 @@
       <c r="L40" s="14">
         <v>1</v>
       </c>
-      <c r="M40" s="14">
-        <v>-0.21052631999999999</v>
+      <c r="M40" s="8">
+        <v>0</v>
       </c>
       <c r="N40" s="18">
         <v>638846859</v>
@@ -4930,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="8">
-        <v>-0.10526315999999999</v>
+        <v>0</v>
       </c>
       <c r="K41" s="14">
         <v>0</v>
@@ -4938,8 +4954,8 @@
       <c r="L41" s="14">
         <v>1</v>
       </c>
-      <c r="M41" s="14">
-        <v>-0.15789474000000001</v>
+      <c r="M41" s="8">
+        <v>0</v>
       </c>
       <c r="N41" s="18">
         <v>564053077</v>
@@ -5019,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="8">
-        <v>-5.2631579999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="K42" s="14">
         <v>0</v>
@@ -5027,8 +5043,8 @@
       <c r="L42" s="14">
         <v>1</v>
       </c>
-      <c r="M42" s="14">
-        <v>-0.10526315999999999</v>
+      <c r="M42" s="8">
+        <v>0</v>
       </c>
       <c r="N42" s="18">
         <v>599490314</v>
@@ -5098,6 +5114,9 @@
       <c r="F43" s="8">
         <v>1</v>
       </c>
+      <c r="G43" s="8">
+        <v>0</v>
+      </c>
       <c r="H43" s="8">
         <v>0</v>
       </c>
@@ -5113,8 +5132,8 @@
       <c r="L43" s="14">
         <v>1</v>
       </c>
-      <c r="M43" s="14">
-        <v>-5.2631579999999997E-2</v>
+      <c r="M43" s="8">
+        <v>0</v>
       </c>
       <c r="N43" s="18">
         <v>617608302</v>
@@ -5178,19 +5197,25 @@
       <c r="F44" s="8">
         <v>1</v>
       </c>
+      <c r="G44" s="8">
+        <v>0</v>
+      </c>
       <c r="H44" s="8">
         <v>0</v>
       </c>
       <c r="I44" s="8">
         <v>1</v>
       </c>
+      <c r="J44" s="8">
+        <v>0</v>
+      </c>
       <c r="K44" s="14">
         <v>0</v>
       </c>
       <c r="L44" s="14">
         <v>1</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M44" s="8">
         <v>0</v>
       </c>
       <c r="N44" s="18">
@@ -5255,19 +5280,27 @@
       <c r="F45" s="8">
         <v>1</v>
       </c>
+      <c r="G45" s="8">
+        <v>0</v>
+      </c>
       <c r="H45" s="8">
         <v>0</v>
       </c>
       <c r="I45" s="8">
         <v>1</v>
       </c>
+      <c r="J45" s="8">
+        <v>0</v>
+      </c>
       <c r="K45" s="14">
         <v>0</v>
       </c>
       <c r="L45" s="14">
         <v>1</v>
       </c>
-      <c r="M45" s="14"/>
+      <c r="M45" s="8">
+        <v>0</v>
+      </c>
       <c r="N45" s="18">
         <v>640202598</v>
       </c>
@@ -5323,19 +5356,27 @@
       <c r="F46" s="8">
         <v>1</v>
       </c>
+      <c r="G46" s="8">
+        <v>0</v>
+      </c>
       <c r="H46" s="8">
         <v>0</v>
       </c>
       <c r="I46" s="8">
         <v>1</v>
       </c>
-      <c r="K46" s="14">
-        <v>0</v>
-      </c>
-      <c r="L46" s="14">
-        <v>1</v>
-      </c>
-      <c r="M46" s="14"/>
+      <c r="J46" s="8">
+        <v>0</v>
+      </c>
+      <c r="K46" s="8">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8">
+        <v>1</v>
+      </c>
+      <c r="M46" s="8">
+        <v>0</v>
+      </c>
       <c r="N46" s="18">
         <v>647083753</v>
       </c>
@@ -5386,19 +5427,27 @@
       <c r="F47" s="8">
         <v>1</v>
       </c>
+      <c r="G47" s="8">
+        <v>0</v>
+      </c>
       <c r="H47" s="8">
         <v>0</v>
       </c>
       <c r="I47" s="8">
         <v>1</v>
       </c>
-      <c r="K47" s="14">
-        <v>0</v>
-      </c>
-      <c r="L47" s="14">
-        <v>1</v>
-      </c>
-      <c r="M47" s="14"/>
+      <c r="J47" s="8">
+        <v>0</v>
+      </c>
+      <c r="K47" s="8">
+        <v>0</v>
+      </c>
+      <c r="L47" s="8">
+        <v>1</v>
+      </c>
+      <c r="M47" s="8">
+        <v>0</v>
+      </c>
       <c r="N47" s="18">
         <v>641603439</v>
       </c>
@@ -5435,24 +5484,8 @@
       <c r="A48" s="10">
         <v>2014</v>
       </c>
-      <c r="E48" s="8">
-        <v>0</v>
-      </c>
-      <c r="F48" s="8">
-        <v>1</v>
-      </c>
-      <c r="H48" s="8">
-        <v>0</v>
-      </c>
-      <c r="I48" s="8">
-        <v>1</v>
-      </c>
-      <c r="K48" s="14">
-        <v>0</v>
-      </c>
-      <c r="L48" s="14">
-        <v>1</v>
-      </c>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
       <c r="M48" s="14"/>
       <c r="N48" s="18">
         <v>673526737</v>

--- a/data/salmon data/data for analysis/Copper_Wild_Sockeye_final.xlsx
+++ b/data/salmon data/data for analysis/Copper_Wild_Sockeye_final.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15300" tabRatio="500"/>
@@ -645,7 +645,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>BroodYear</t>
   </si>
@@ -831,6 +831,12 @@
   </si>
   <si>
     <t>EVOS.pulseRecovery.lag0</t>
+  </si>
+  <si>
+    <t>discharge.lag0</t>
+  </si>
+  <si>
+    <t>discharge.lag1</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1111,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1128,6 +1134,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1605,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44:M47"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AB49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1617,12 +1624,12 @@
     <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="8" customWidth="1"/>
-    <col min="5" max="26" width="11" style="8" customWidth="1"/>
-    <col min="27" max="27" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="8"/>
+    <col min="5" max="28" width="11" style="8" customWidth="1"/>
+    <col min="29" max="29" width="11" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:31">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1701,17 +1708,23 @@
       <c r="Z1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:31">
       <c r="A2" s="10">
         <v>1968</v>
       </c>
@@ -1753,17 +1766,23 @@
         <v>292211</v>
       </c>
       <c r="Z2" s="14"/>
-      <c r="AA2">
+      <c r="AA2" s="18">
+        <v>250558.67050000001</v>
+      </c>
+      <c r="AB2" s="18">
+        <v>267230.38510000001</v>
+      </c>
+      <c r="AC2">
         <v>6.8027777406904404</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AD2" s="8">
         <v>-23.25</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AE2" s="8">
         <v>-44.75</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:31">
       <c r="A3" s="10">
         <v>1969</v>
       </c>
@@ -1816,17 +1835,23 @@
         <v>684035</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3">
+      <c r="AA3" s="18">
+        <v>259762.7947</v>
+      </c>
+      <c r="AB3" s="18">
+        <v>250558.67050000001</v>
+      </c>
+      <c r="AC3">
         <v>6.2857407331466701</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AD3" s="8">
         <v>-44.75</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AE3" s="8">
         <v>-9.3333333333333321</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:31">
       <c r="A4" s="10">
         <v>1970</v>
       </c>
@@ -1885,17 +1910,23 @@
         <v>314560</v>
       </c>
       <c r="Z4" s="15"/>
-      <c r="AA4">
+      <c r="AA4" s="18">
+        <v>262705.315</v>
+      </c>
+      <c r="AB4" s="18">
+        <v>259762.7947</v>
+      </c>
+      <c r="AC4">
         <v>6.2129629585478003</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AD4" s="8">
         <v>-9.3333333333333321</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AE4" s="8">
         <v>20.833333333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:31">
       <c r="A5" s="10">
         <v>1971</v>
       </c>
@@ -1954,17 +1985,23 @@
         <v>1221109</v>
       </c>
       <c r="Z5" s="15"/>
-      <c r="AA5">
+      <c r="AA5" s="18">
+        <v>237275.0607</v>
+      </c>
+      <c r="AB5" s="18">
+        <v>262705.315</v>
+      </c>
+      <c r="AC5">
         <v>6.3857407437430496</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AD5" s="8">
         <v>20.833333333333336</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AE5" s="8">
         <v>-24.916666666666668</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:31">
       <c r="A6" s="10">
         <v>1972</v>
       </c>
@@ -2023,17 +2060,23 @@
         <v>255444</v>
       </c>
       <c r="Z6" s="15"/>
-      <c r="AA6">
+      <c r="AA6" s="18">
+        <v>227100.2844</v>
+      </c>
+      <c r="AB6" s="18">
+        <v>237275.0607</v>
+      </c>
+      <c r="AC6">
         <v>6.7925925872943997</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AD6" s="8">
         <v>-24.916666666666668</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AE6" s="8">
         <v>29.666666666666668</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:31">
       <c r="A7" s="10">
         <v>1973</v>
       </c>
@@ -2092,17 +2135,23 @@
         <v>125505</v>
       </c>
       <c r="Z7" s="15"/>
-      <c r="AA7">
+      <c r="AA7" s="18">
+        <v>217824.0711</v>
+      </c>
+      <c r="AB7" s="18">
+        <v>227100.2844</v>
+      </c>
+      <c r="AC7">
         <v>6.3951851615199304</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AD7" s="8">
         <v>29.666666666666668</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AE7" s="8">
         <v>8.25</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:31">
       <c r="A8" s="10">
         <v>1974</v>
       </c>
@@ -2161,17 +2210,23 @@
         <v>460923</v>
       </c>
       <c r="Z8" s="15"/>
-      <c r="AA8">
+      <c r="AA8" s="18">
+        <v>279620.43199999997</v>
+      </c>
+      <c r="AB8" s="18">
+        <v>217824.0711</v>
+      </c>
+      <c r="AC8">
         <v>6.7396296483498999</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AD8" s="8">
         <v>8.25</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AE8" s="8">
         <v>12.75</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:31">
       <c r="A9" s="10">
         <v>1975</v>
       </c>
@@ -2232,17 +2287,23 @@
         <v>698076</v>
       </c>
       <c r="Z9" s="15"/>
-      <c r="AA9">
+      <c r="AA9" s="18">
+        <v>252906.58540000001</v>
+      </c>
+      <c r="AB9" s="18">
+        <v>279620.43199999997</v>
+      </c>
+      <c r="AC9">
         <v>7.1818518197094896</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AD9" s="8">
         <v>12.75</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AE9" s="8">
         <v>-19.666666666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:31">
       <c r="A10" s="10">
         <v>1976</v>
       </c>
@@ -2305,17 +2366,23 @@
         <v>664098</v>
       </c>
       <c r="Z10" s="15"/>
-      <c r="AA10">
+      <c r="AA10" s="18">
+        <v>327652.45390000002</v>
+      </c>
+      <c r="AB10" s="18">
+        <v>252906.58540000001</v>
+      </c>
+      <c r="AC10">
         <v>6.9775925918861699</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AD10" s="8">
         <v>-19.666666666666664</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AE10" s="8">
         <v>-8.8333333333333321</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:31">
       <c r="A11" s="10">
         <v>1977</v>
       </c>
@@ -2378,17 +2445,23 @@
         <v>385054</v>
       </c>
       <c r="Z11" s="15"/>
-      <c r="AA11">
+      <c r="AA11" s="18">
+        <v>306782.9817</v>
+      </c>
+      <c r="AB11" s="18">
+        <v>327652.45390000002</v>
+      </c>
+      <c r="AC11">
         <v>7.1803703661318199</v>
       </c>
-      <c r="AB11" s="8">
+      <c r="AD11" s="8">
         <v>-8.8333333333333321</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AE11" s="8">
         <v>20.666666666666664</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:31">
       <c r="A12" s="10">
         <v>1978</v>
       </c>
@@ -2451,17 +2524,23 @@
         <v>489257</v>
       </c>
       <c r="Z12" s="15"/>
-      <c r="AA12">
+      <c r="AA12" s="18">
+        <v>240079.23989999999</v>
+      </c>
+      <c r="AB12" s="18">
+        <v>306782.9817</v>
+      </c>
+      <c r="AC12">
         <v>6.9405555371884899</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AD12" s="8">
         <v>20.666666666666664</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AE12" s="8">
         <v>-7.25</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:31">
       <c r="A13" s="10">
         <v>1979</v>
       </c>
@@ -2528,17 +2607,23 @@
       <c r="Z13" s="17">
         <v>310761</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="18">
+        <v>253325.39550000001</v>
+      </c>
+      <c r="AB13" s="18">
+        <v>240079.23989999999</v>
+      </c>
+      <c r="AC13">
         <v>7.4931481326067901</v>
       </c>
-      <c r="AB13" s="8">
+      <c r="AD13" s="8">
         <v>-7.25</v>
       </c>
-      <c r="AC13" s="8">
+      <c r="AE13" s="8">
         <v>-17.916666666666668</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:31">
       <c r="A14" s="10">
         <v>1980</v>
       </c>
@@ -2609,17 +2694,23 @@
       <c r="Z14" s="17">
         <v>354604</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="20">
+        <v>300235.94949999999</v>
+      </c>
+      <c r="AB14" s="20">
+        <v>253325.39550000001</v>
+      </c>
+      <c r="AC14">
         <v>7.0050000261377399</v>
       </c>
-      <c r="AB14" s="8">
+      <c r="AD14" s="8">
         <v>-17.916666666666668</v>
       </c>
-      <c r="AC14" s="8">
+      <c r="AE14" s="8">
         <v>-50.833333333333336</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:31">
       <c r="A15" s="10">
         <v>1981</v>
       </c>
@@ -2694,17 +2785,23 @@
       <c r="Z15" s="17">
         <v>508173</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="18">
+        <v>298314.11200000002</v>
+      </c>
+      <c r="AB15" s="18">
+        <v>300235.94949999999</v>
+      </c>
+      <c r="AC15">
         <v>7.5764815100917096</v>
       </c>
-      <c r="AB15" s="8">
+      <c r="AD15" s="8">
         <v>-50.833333333333336</v>
       </c>
-      <c r="AC15" s="8">
+      <c r="AE15" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:31">
       <c r="A16" s="10">
         <v>1982</v>
       </c>
@@ -2779,17 +2876,23 @@
       <c r="Z16" s="17">
         <v>296018</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="18">
+        <v>220808.3033</v>
+      </c>
+      <c r="AB16" s="18">
+        <v>298314.11200000002</v>
+      </c>
+      <c r="AC16">
         <v>7.6064814814814801</v>
       </c>
-      <c r="AB16" s="8">
+      <c r="AD16" s="8">
         <v>5</v>
       </c>
-      <c r="AC16" s="8">
+      <c r="AE16" s="8">
         <v>28.583333333333332</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:31">
       <c r="A17" s="10">
         <v>1983</v>
       </c>
@@ -2866,17 +2969,23 @@
       <c r="Z17" s="17">
         <v>439877</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="18">
+        <v>283441.22100000002</v>
+      </c>
+      <c r="AB17" s="18">
+        <v>220808.3033</v>
+      </c>
+      <c r="AC17">
         <v>6.8431481432031704</v>
       </c>
-      <c r="AB17" s="8">
+      <c r="AD17" s="8">
         <v>28.583333333333332</v>
       </c>
-      <c r="AC17" s="8">
+      <c r="AE17" s="8">
         <v>-5.25</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:31">
       <c r="A18" s="10">
         <v>1984</v>
       </c>
@@ -2951,17 +3060,23 @@
       <c r="Z18" s="17">
         <v>693050</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="18">
+        <v>252524.6678</v>
+      </c>
+      <c r="AB18" s="18">
+        <v>283441.22100000002</v>
+      </c>
+      <c r="AC18">
         <v>7.2175925925925899</v>
       </c>
-      <c r="AB18" s="8">
+      <c r="AD18" s="8">
         <v>-5.25</v>
       </c>
-      <c r="AC18" s="8">
+      <c r="AE18" s="8">
         <v>5.916666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:31">
       <c r="A19" s="10">
         <v>1985</v>
       </c>
@@ -3040,17 +3155,23 @@
       <c r="Z19" s="17">
         <v>321770</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="18">
+        <v>279179.23259999999</v>
+      </c>
+      <c r="AB19" s="18">
+        <v>252524.6678</v>
+      </c>
+      <c r="AC19">
         <v>7.2225925834090603</v>
       </c>
-      <c r="AB19" s="8">
+      <c r="AD19" s="8">
         <v>5.916666666666667</v>
       </c>
-      <c r="AC19" s="8">
+      <c r="AE19" s="8">
         <v>23.416666666666668</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:31">
       <c r="A20" s="10">
         <v>1986</v>
       </c>
@@ -3127,17 +3248,23 @@
       <c r="Z20" s="17">
         <v>139524</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="18">
+        <v>332840.14799999999</v>
+      </c>
+      <c r="AB20" s="18">
+        <v>279179.23259999999</v>
+      </c>
+      <c r="AC20">
         <v>7.1796296349278199</v>
       </c>
-      <c r="AB20" s="8">
+      <c r="AD20" s="8">
         <v>23.416666666666668</v>
       </c>
-      <c r="AC20" s="8">
+      <c r="AE20" s="8">
         <v>16.416666666666668</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:31">
       <c r="A21" s="10">
         <v>1987</v>
       </c>
@@ -3216,17 +3343,23 @@
       <c r="Z21" s="17">
         <v>343498</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="18">
+        <v>384128.02600000001</v>
+      </c>
+      <c r="AB21" s="18">
+        <v>332840.14799999999</v>
+      </c>
+      <c r="AC21">
         <v>7.1516667118778896</v>
       </c>
-      <c r="AB21" s="8">
+      <c r="AD21" s="8">
         <v>16.416666666666668</v>
       </c>
-      <c r="AC21" s="8">
+      <c r="AE21" s="8">
         <v>30.666666666666668</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:31">
       <c r="A22" s="10">
         <v>1988</v>
       </c>
@@ -3305,17 +3438,23 @@
       <c r="Z22" s="17">
         <v>235820</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="18">
+        <v>324591.42239999998</v>
+      </c>
+      <c r="AB22" s="18">
+        <v>384128.02600000001</v>
+      </c>
+      <c r="AC22">
         <v>6.9655555177617998</v>
       </c>
-      <c r="AB22" s="8">
+      <c r="AD22" s="8">
         <v>30.666666666666668</v>
       </c>
-      <c r="AC22" s="8">
+      <c r="AE22" s="8">
         <v>48.833333333333329</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:31">
       <c r="A23" s="10">
         <v>1989</v>
       </c>
@@ -3394,17 +3533,23 @@
       <c r="Z23" s="17">
         <v>289183</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="18">
+        <v>264924.88630000001</v>
+      </c>
+      <c r="AB23" s="18">
+        <v>324591.42239999998</v>
+      </c>
+      <c r="AC23">
         <v>6.8142592288829702</v>
       </c>
-      <c r="AB23" s="8">
+      <c r="AD23" s="8">
         <v>48.833333333333329</v>
       </c>
-      <c r="AC23" s="8">
+      <c r="AE23" s="8">
         <v>19.583333333333332</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:31">
       <c r="A24" s="10">
         <v>1990</v>
       </c>
@@ -3483,17 +3628,23 @@
       <c r="Z24" s="17">
         <v>449442</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="18">
+        <v>280384.98440000002</v>
+      </c>
+      <c r="AB24" s="18">
+        <v>264924.88630000001</v>
+      </c>
+      <c r="AC24">
         <v>6.8649999918761102</v>
       </c>
-      <c r="AB24" s="8">
+      <c r="AD24" s="8">
         <v>19.583333333333332</v>
       </c>
-      <c r="AC24" s="8">
+      <c r="AE24" s="8">
         <v>54.666666666666671</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:31">
       <c r="A25" s="10">
         <v>1991</v>
       </c>
@@ -3572,17 +3723,23 @@
       <c r="Z25" s="17">
         <v>336190</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="18">
+        <v>342386.86119999998</v>
+      </c>
+      <c r="AB25" s="18">
+        <v>280384.98440000002</v>
+      </c>
+      <c r="AC25">
         <v>7.3350000116560201</v>
       </c>
-      <c r="AB25" s="8">
+      <c r="AD25" s="8">
         <v>54.666666666666671</v>
       </c>
-      <c r="AC25" s="8">
+      <c r="AE25" s="8">
         <v>23.25</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:31">
       <c r="A26" s="10">
         <v>1992</v>
       </c>
@@ -3661,17 +3818,23 @@
       <c r="Z26" s="17">
         <v>327209</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="18">
+        <v>337632.12900000002</v>
+      </c>
+      <c r="AB26" s="18">
+        <v>342386.86119999998</v>
+      </c>
+      <c r="AC26">
         <v>7.1168518419618998</v>
       </c>
-      <c r="AB26" s="8">
+      <c r="AD26" s="8">
         <v>23.25</v>
       </c>
-      <c r="AC26" s="8">
+      <c r="AE26" s="8">
         <v>18.25</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:31">
       <c r="A27" s="10">
         <v>1993</v>
       </c>
@@ -3750,17 +3913,23 @@
       <c r="Z27" s="17">
         <v>726883</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="18">
+        <v>292579.9914</v>
+      </c>
+      <c r="AB27" s="18">
+        <v>337632.12900000002</v>
+      </c>
+      <c r="AC27">
         <v>6.8716666433546303</v>
       </c>
-      <c r="AB27" s="8">
+      <c r="AD27" s="8">
         <v>18.25</v>
       </c>
-      <c r="AC27" s="8">
+      <c r="AE27" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:31">
       <c r="A28" s="10">
         <v>1994</v>
       </c>
@@ -3839,17 +4008,23 @@
       <c r="Z28" s="17">
         <v>577028</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="18">
+        <v>299951.5405</v>
+      </c>
+      <c r="AB28" s="18">
+        <v>292579.9914</v>
+      </c>
+      <c r="AC28">
         <v>6.8961110998082997</v>
       </c>
-      <c r="AB28" s="8">
+      <c r="AD28" s="8">
         <v>-1</v>
       </c>
-      <c r="AC28" s="8">
+      <c r="AE28" s="8">
         <v>2.666666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:31">
       <c r="A29" s="10">
         <v>1995</v>
       </c>
@@ -3928,17 +4103,23 @@
       <c r="Z29" s="17">
         <v>238272</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="18">
+        <v>284705.64620000002</v>
+      </c>
+      <c r="AB29" s="18">
+        <v>299951.5405</v>
+      </c>
+      <c r="AC29">
         <v>7.6879629382380701</v>
       </c>
-      <c r="AB29" s="8">
+      <c r="AD29" s="8">
         <v>2.666666666666667</v>
       </c>
-      <c r="AC29" s="8">
+      <c r="AE29" s="8">
         <v>7.4166666666666661</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:31">
       <c r="A30" s="10">
         <v>1996</v>
       </c>
@@ -4017,17 +4198,23 @@
       <c r="Z30" s="17">
         <v>73396</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="18">
+        <v>252000.3579</v>
+      </c>
+      <c r="AB30" s="18">
+        <v>284705.64620000002</v>
+      </c>
+      <c r="AC30">
         <v>7.2679629855685803</v>
       </c>
-      <c r="AB30" s="8">
+      <c r="AD30" s="8">
         <v>7.4166666666666661</v>
       </c>
-      <c r="AC30" s="8">
+      <c r="AE30" s="8">
         <v>-12.416666666666666</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:31">
       <c r="A31" s="10">
         <v>1997</v>
       </c>
@@ -4106,17 +4293,23 @@
       <c r="Z31" s="17">
         <v>138982</v>
       </c>
-      <c r="AA31">
+      <c r="AA31" s="18">
+        <v>307158.12560000003</v>
+      </c>
+      <c r="AB31" s="18">
+        <v>252000.3579</v>
+      </c>
+      <c r="AC31">
         <v>6.8137037047633404</v>
       </c>
-      <c r="AB31" s="8">
+      <c r="AD31" s="8">
         <v>-12.416666666666666</v>
       </c>
-      <c r="AC31" s="8">
+      <c r="AE31" s="8">
         <v>33.833333333333329</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:31">
       <c r="A32" s="10">
         <v>1998</v>
       </c>
@@ -4195,17 +4388,23 @@
       <c r="Z32" s="17">
         <v>198466</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" s="18">
+        <v>298739.391</v>
+      </c>
+      <c r="AB32" s="18">
+        <v>307158.12560000003</v>
+      </c>
+      <c r="AC32">
         <v>7.1001851558685303</v>
       </c>
-      <c r="AB32" s="8">
+      <c r="AD32" s="8">
         <v>33.833333333333329</v>
       </c>
-      <c r="AC32" s="8">
+      <c r="AE32" s="8">
         <v>31.416666666666668</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:31">
       <c r="A33" s="10">
         <v>1999</v>
       </c>
@@ -4284,17 +4483,23 @@
       <c r="Z33" s="17">
         <v>348129</v>
       </c>
-      <c r="AA33">
+      <c r="AA33" s="18">
+        <v>331117.17950000003</v>
+      </c>
+      <c r="AB33" s="18">
+        <v>298739.391</v>
+      </c>
+      <c r="AC33">
         <v>6.9649999494905801</v>
       </c>
-      <c r="AB33" s="8">
+      <c r="AD33" s="8">
         <v>31.416666666666668</v>
       </c>
-      <c r="AC33" s="8">
+      <c r="AE33" s="8">
         <v>34.083333333333336</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:31">
       <c r="A34" s="10">
         <v>2000</v>
       </c>
@@ -4373,17 +4578,23 @@
       <c r="Z34" s="17">
         <v>293340</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" s="18">
+        <v>324565.56290000002</v>
+      </c>
+      <c r="AB34" s="18">
+        <v>331117.17950000003</v>
+      </c>
+      <c r="AC34">
         <v>7.3007407541628204</v>
       </c>
-      <c r="AB34" s="8">
+      <c r="AD34" s="8">
         <v>34.083333333333336</v>
       </c>
-      <c r="AC34" s="8">
+      <c r="AE34" s="8">
         <v>34.083333333333329</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:31">
       <c r="A35" s="10">
         <v>2001</v>
       </c>
@@ -4462,17 +4673,23 @@
       <c r="Z35" s="17">
         <v>588227</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" s="18">
+        <v>281154.53499999997</v>
+      </c>
+      <c r="AB35" s="18">
+        <v>324565.56290000002</v>
+      </c>
+      <c r="AC35">
         <v>7.5570370091332304</v>
       </c>
-      <c r="AB35" s="8">
+      <c r="AD35" s="8">
         <v>34.083333333333329</v>
       </c>
-      <c r="AC35" s="8">
+      <c r="AE35" s="8">
         <v>20.166666666666664</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:31">
       <c r="A36" s="10">
         <v>2002</v>
       </c>
@@ -4551,17 +4768,23 @@
       <c r="Z36" s="17">
         <v>435769</v>
       </c>
-      <c r="AA36">
+      <c r="AA36" s="18">
+        <v>313336.46509999997</v>
+      </c>
+      <c r="AB36" s="18">
+        <v>281154.53499999997</v>
+      </c>
+      <c r="AC36">
         <v>7.4987037181854204</v>
       </c>
-      <c r="AB36" s="8">
+      <c r="AD36" s="8">
         <v>20.166666666666664</v>
       </c>
-      <c r="AC36" s="8">
+      <c r="AE36" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:31">
       <c r="A37" s="10">
         <v>2003</v>
       </c>
@@ -4640,17 +4863,23 @@
       <c r="Z37" s="17">
         <v>567839</v>
       </c>
-      <c r="AA37">
+      <c r="AA37" s="18">
+        <v>262465.37199999997</v>
+      </c>
+      <c r="AB37" s="18">
+        <v>313336.46509999997</v>
+      </c>
+      <c r="AC37">
         <v>7.46629631077802</v>
       </c>
-      <c r="AB37" s="8">
+      <c r="AD37" s="8">
         <v>27</v>
       </c>
-      <c r="AC37" s="8">
+      <c r="AE37" s="8">
         <v>-23.916666666666668</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:31">
       <c r="A38" s="10">
         <v>2004</v>
       </c>
@@ -4729,17 +4958,23 @@
       <c r="Z38" s="17">
         <v>364547</v>
       </c>
-      <c r="AA38">
+      <c r="AA38" s="18">
+        <v>298415.46189999999</v>
+      </c>
+      <c r="AB38" s="18">
+        <v>262465.37199999997</v>
+      </c>
+      <c r="AC38">
         <v>6.8118517928653297</v>
       </c>
-      <c r="AB38" s="8">
+      <c r="AD38" s="8">
         <v>-23.916666666666668</v>
       </c>
-      <c r="AC38" s="8">
+      <c r="AE38" s="8">
         <v>-39.416666666666671</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:31">
       <c r="A39" s="10">
         <v>2005</v>
       </c>
@@ -4818,17 +5053,23 @@
       <c r="Z39" s="17">
         <v>401420</v>
       </c>
-      <c r="AA39">
+      <c r="AA39" s="18">
+        <v>319096.78320000001</v>
+      </c>
+      <c r="AB39" s="18">
+        <v>298415.46189999999</v>
+      </c>
+      <c r="AC39">
         <v>6.75314815839132</v>
       </c>
-      <c r="AB39" s="8">
+      <c r="AD39" s="8">
         <v>-39.416666666666671</v>
       </c>
-      <c r="AC39" s="8">
+      <c r="AE39" s="8">
         <v>-20.833333333333332</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:31">
       <c r="A40" s="10">
         <v>2006</v>
       </c>
@@ -4907,17 +5148,23 @@
       <c r="Z40" s="17">
         <v>171002</v>
       </c>
-      <c r="AA40">
+      <c r="AA40" s="18">
+        <v>267765.34590000001</v>
+      </c>
+      <c r="AB40" s="18">
+        <v>319096.78320000001</v>
+      </c>
+      <c r="AC40">
         <v>6.5192592894589501</v>
       </c>
-      <c r="AB40" s="8">
+      <c r="AD40" s="8">
         <v>-20.833333333333332</v>
       </c>
-      <c r="AC40" s="8">
+      <c r="AE40" s="8">
         <v>10.083333333333334</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:31">
       <c r="A41" s="10">
         <v>2007</v>
       </c>
@@ -4996,17 +5243,23 @@
       <c r="Z41" s="17">
         <v>279304</v>
       </c>
-      <c r="AA41">
+      <c r="AA41" s="18">
+        <v>314611.1165</v>
+      </c>
+      <c r="AB41" s="18">
+        <v>267765.34590000001</v>
+      </c>
+      <c r="AC41">
         <v>6.7938889176757202</v>
       </c>
-      <c r="AB41" s="8">
+      <c r="AD41" s="8">
         <v>10.083333333333334</v>
       </c>
-      <c r="AC41" s="8">
+      <c r="AE41" s="8">
         <v>15.499999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:31">
       <c r="A42" s="10">
         <v>2008</v>
       </c>
@@ -5085,17 +5338,23 @@
       <c r="Z42" s="17">
         <v>249070</v>
       </c>
-      <c r="AA42">
+      <c r="AA42" s="18">
+        <v>315397.29220000003</v>
+      </c>
+      <c r="AB42" s="18">
+        <v>314611.1165</v>
+      </c>
+      <c r="AC42">
         <v>7.0305555396609796</v>
       </c>
-      <c r="AB42" s="8">
+      <c r="AD42" s="8">
         <v>15.499999999999998</v>
       </c>
-      <c r="AC42" s="8">
+      <c r="AE42" s="8">
         <v>42.583333333333329</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:31">
       <c r="A43" s="10">
         <v>2009</v>
       </c>
@@ -5174,17 +5433,23 @@
       <c r="Z43" s="17">
         <v>251698</v>
       </c>
-      <c r="AA43">
+      <c r="AA43" s="18">
+        <v>275038.97730000003</v>
+      </c>
+      <c r="AB43" s="18">
+        <v>315397.29220000003</v>
+      </c>
+      <c r="AC43">
         <v>6.9181481334898196</v>
       </c>
-      <c r="AB43" s="8">
+      <c r="AD43" s="8">
         <v>42.583333333333329</v>
       </c>
-      <c r="AC43" s="8">
+      <c r="AE43" s="8">
         <v>67.25</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:31">
       <c r="A44" s="10">
         <v>2010</v>
       </c>
@@ -5257,17 +5522,23 @@
       <c r="Z44" s="17">
         <v>166027</v>
       </c>
-      <c r="AA44">
+      <c r="AA44" s="18">
+        <v>292554.16009999998</v>
+      </c>
+      <c r="AB44" s="18">
+        <v>275038.97730000003</v>
+      </c>
+      <c r="AC44">
         <v>6.6629629355889799</v>
       </c>
-      <c r="AB44" s="8">
+      <c r="AD44" s="8">
         <v>67.25</v>
       </c>
-      <c r="AC44" s="8">
+      <c r="AE44" s="8">
         <v>28.25</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:31">
       <c r="A45" s="10">
         <v>2011</v>
       </c>
@@ -5336,17 +5607,23 @@
       <c r="Z45" s="17">
         <v>168260</v>
       </c>
-      <c r="AA45">
+      <c r="AA45" s="18">
+        <v>273244.43440000003</v>
+      </c>
+      <c r="AB45" s="18">
+        <v>292554.16009999998</v>
+      </c>
+      <c r="AC45">
         <v>6.93333329094781</v>
       </c>
-      <c r="AB45" s="8">
+      <c r="AD45" s="8">
         <v>28.25</v>
       </c>
-      <c r="AC45" s="8">
+      <c r="AE45" s="8">
         <v>55.666666666666664</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:31">
       <c r="A46" s="10">
         <v>2012</v>
       </c>
@@ -5410,14 +5687,20 @@
       <c r="X46" s="14"/>
       <c r="Y46" s="14"/>
       <c r="Z46" s="14"/>
-      <c r="AB46" s="8">
+      <c r="AA46" s="18">
+        <v>308300.49810000003</v>
+      </c>
+      <c r="AB46" s="18">
+        <v>273244.43440000003</v>
+      </c>
+      <c r="AD46" s="8">
         <v>55.666666666666664</v>
       </c>
-      <c r="AC46" s="8">
+      <c r="AE46" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:31">
       <c r="A47" s="10">
         <v>2013</v>
       </c>
@@ -5479,8 +5762,14 @@
       <c r="X47" s="14"/>
       <c r="Y47" s="14"/>
       <c r="Z47" s="14"/>
-    </row>
-    <row r="48" spans="1:29">
+      <c r="AA47" s="18">
+        <v>295016.70919999998</v>
+      </c>
+      <c r="AB47" s="18">
+        <v>308300.49810000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" s="10">
         <v>2014</v>
       </c>
@@ -5514,16 +5803,20 @@
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
-    </row>
-    <row r="49" spans="17:23">
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+    </row>
+    <row r="49" spans="17:28">
       <c r="Q49" s="18"/>
       <c r="R49" s="14"/>
       <c r="W49" s="18"/>
-    </row>
-    <row r="50" spans="17:23">
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+    </row>
+    <row r="50" spans="17:28">
       <c r="W50" s="18"/>
     </row>
-    <row r="51" spans="17:23">
+    <row r="51" spans="17:28">
       <c r="W51" s="14"/>
     </row>
   </sheetData>
